--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى بالمانجا - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
+  </si>
+  <si>
+    <t>ريد بل فرى شوجر - 250 مل</t>
+  </si>
+  <si>
+    <t>ريد بل ابيض بجوز الهند و التوت - 250 مل</t>
+  </si>
+  <si>
+    <t>ريد بول 12 كانز - 250 مل</t>
+  </si>
+  <si>
+    <t>ريدبل كريز و توت بري  - 250 مل</t>
+  </si>
+  <si>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19501</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +453,112 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>1065</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1065</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1065</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>13928</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>13928</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1065</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19977</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1050</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7630</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>205</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -38,21 +38,6 @@
   </si>
   <si>
     <t>ريد بل - 250 مل</t>
-  </si>
-  <si>
-    <t>ريد بل فرى شوجر - 250 مل</t>
-  </si>
-  <si>
-    <t>ريد بل ابيض بجوز الهند و التوت - 250 مل</t>
-  </si>
-  <si>
-    <t>ريد بول 12 كانز - 250 مل</t>
-  </si>
-  <si>
-    <t>ريدبل كريز و توت بري  - 250 مل</t>
-  </si>
-  <si>
-    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,112 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5152</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1065</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1065</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>13928</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>532</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>13928</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1065</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19977</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1050</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7630</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,70 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>ايبون فروتي- 800 جرام</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة حار 170 جم + 30 جم - 200 جم</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم التفاح - 3 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم مانجو - 3 جنية</t>
+  </si>
+  <si>
+    <t>شوتس شوكو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ماجيك فينجرز ويفر شوكولاتة بالبندق غير مغطي - 6 قطعه</t>
+  </si>
+  <si>
+    <t>اسباجيتوس شعرية حامض بطعم الفراولة 3 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فينجرز ويفر محشو بكريمة جوز الهند - 6 قطعه</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم الفراولة - 3 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم اناناس - 3 جنية</t>
+  </si>
+  <si>
+    <t>تويست مارشيلو بينك &amp; وايت - 10 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم الكولا - 3 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فنجرز - ويفر مغطى بالشوكولاتة محشو بكريمة الشوكولاتة - 6 قطعه</t>
+  </si>
+  <si>
+    <t>تويست ميني بلو مارشميلو  - 10 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فنجرز محشو بكريمة الفانيليا - 5 جنية</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي- 500 مل</t>
+  </si>
+  <si>
+    <t>مياه اكوا دلتا - 600 مل</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+  </si>
+  <si>
+    <t>برسيل يدوى لافندر - 1.5 كجم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -398,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +489,546 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>22330</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2859</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1692</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2859</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>844</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11722</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>328</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11056</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21690</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21690</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21691</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>12365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21689</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11054</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>11054</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11057</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>332</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>11057</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11717</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>548</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>11717</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>11055</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>328</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11055</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>21694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>11718</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>548</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>11718</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>21693</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5660</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1085</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D29">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>880</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>525</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>879</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>8872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>344</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>1203</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>159</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>54.5</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11960</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54.5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1704</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ميرندا برتقال - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>1429</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +441,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1446</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ميرندا برتقال - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1429</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,16 +449,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1446</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن بخيره - 500 مل</t>
-  </si>
-  <si>
-    <t>لبن بخيره - 1 لتر</t>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب برتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب اناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب كشمش الاسود - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب تفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب جوافة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب ليمون وردى - 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير دراجون فروت- 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير يوسفي مشطشط - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +459,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>130</v>
+        <v>3889</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,15 +468,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>151</v>
+        <v>3891</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +485,163 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3892</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5945</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5946</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>12621</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20649</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20650</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير سن توب توت مشكل - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب برتقال - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب اناناس - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب كشمش الاسود - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب تفاح - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب جوافة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب ليمون وردى - 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير دراجون فروت- 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير يوسفي مشطشط - 250 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -428,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3889</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3891</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>249</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3892</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3893</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3894</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>249</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5945</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>249</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5946</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>249</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>7182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>12621</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20649</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>249</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20650</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>249</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>11770</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,58 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
+    <t>حلو الشام بقسماط- 350 جم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور  أبيض عرض 2 في 1 - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 صنوبر - 700 مل</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
+  </si>
+  <si>
+    <t>عصير جهينة مون شيرى - 235 مل</t>
+  </si>
+  <si>
+    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق - 30 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بالبندق - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة البيضاء - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بطعم المانجو - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة   الشوكولاتة بالبندق مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة الشوكولاتة البيضاء مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة الشوكولاتة بطعم المانجو مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا كونو بسكويت محشو بكريمة الشوكولاتة بالبندق - 25 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا  - 2 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام رايت شيف جديد - 18 جم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
+  </si>
+  <si>
+    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق نباتي - 30 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +480,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11770</v>
+        <v>1514</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +489,333 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>248.5</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3043</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>155.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>503.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>11613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>12913</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>880.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>12914</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>880.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>12915</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>880.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>12916</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>880.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>12917</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>880.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>12918</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>880.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12919</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>880.25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12920</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>73.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>330</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>13324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>27.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>13326</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>612</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>13326</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>13598</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>90.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>13606</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>366.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>23607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>880.25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,58 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حلو الشام بقسماط- 350 جم</t>
-  </si>
-  <si>
-    <t>كلوركس كلور  أبيض عرض 2 في 1 - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 صنوبر - 700 مل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
-  </si>
-  <si>
-    <t>عصير جهينة مون شيرى - 235 مل</t>
-  </si>
-  <si>
-    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق - 30 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بالبندق - 55 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة البيضاء - 55 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بطعم المانجو - 55 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بسكي لافا كريمة   الشوكولاتة بالبندق مع قطع البسكويت - 60 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بسكي لافا كريمة الشوكولاتة البيضاء مع قطع البسكويت - 60 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا بسكي لافا كريمة الشوكولاتة بطعم المانجو مع قطع البسكويت - 60 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا كونو بسكويت محشو بكريمة الشوكولاتة بالبندق - 25 جم</t>
-  </si>
-  <si>
-    <t>حلو الشام فانيليا  - 2 جم</t>
-  </si>
-  <si>
-    <t>حلو الشام رايت شيف جديد - 18 جم</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
-  </si>
-  <si>
-    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق نباتي - 30 جم</t>
+    <t>كوكاكولا اكشن - 300 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -449,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,342 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1514</v>
+        <v>6935</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>248.5</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3043</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>155.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3397</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>503.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>275</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>11613</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>12913</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>880.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>12914</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>880.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>12915</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>880.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>12916</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>880.25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>12917</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>880.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>12918</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>880.25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12919</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>880.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12920</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>73.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>13324</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>330</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>13324</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>27.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>13326</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>612</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>13326</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>13598</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>90.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>13606</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>366.25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>23607</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>880.25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6935</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_1124.xlsx
+++ b/Uploads/1_new_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>عصير جهينة اورينتال خروب - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>10605</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>225</v>
+        <v>531</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
